--- a/recursos/planillasImprimibles/template_ImpirmirOP.xlsx
+++ b/recursos/planillasImprimibles/template_ImpirmirOP.xlsx
@@ -298,12 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -319,6 +313,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,8 +871,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,19 +908,19 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="22">
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="34">
         <v>136</v>
       </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
@@ -950,15 +950,15 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -988,15 +988,15 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1319,78 +1319,78 @@
       <c r="V17" s="10"/>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25" t="s">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="N18" s="24" t="s">
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="N18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25" t="s">
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24"/>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="32"/>
-      <c r="N19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="N19" s="28"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="32"/>
+      <c r="T19" s="30"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="32"/>
-      <c r="N20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
-      <c r="T20" s="32"/>
+      <c r="T20" s="30"/>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
@@ -1409,46 +1409,46 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25" t="s">
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25" t="s">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="24"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="27"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>18</v>
       </c>
       <c r="K29" t="s">
